--- a/downloaded_files/EPES307_Tutorial-35466.xlsx
+++ b/downloaded_files/EPES307_Tutorial-35466.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,6 +103,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Mohamed Nabil</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اندرو ايهاب جورج شاكر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Andrew Ehab George Shaker</x:t>
   </x:si>
   <x:si>
     <x:t>4220114</x:t>
@@ -518,7 +527,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -818,7 +827,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T43"/>
+  <x:dimension ref="A1:T44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1165,7 +1174,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4226414352</x:v>
+        <x:v>45919.6726004977</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1197,7 +1206,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4147799769</x:v>
+        <x:v>45907.4226414352</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1229,7 +1238,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4151439005</x:v>
+        <x:v>45907.4147799769</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1261,7 +1270,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4148217593</x:v>
+        <x:v>45907.4151439005</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1293,7 +1302,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.414821956</x:v>
+        <x:v>45907.4148217593</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1325,7 +1334,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4173934028</x:v>
+        <x:v>45907.414821956</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1357,7 +1366,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6647248495</x:v>
+        <x:v>45907.4173934028</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1389,7 +1398,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4145679398</x:v>
+        <x:v>45906.6647248495</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1421,7 +1430,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.5338020486</x:v>
+        <x:v>45907.4145679398</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1453,7 +1462,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6652097222</x:v>
+        <x:v>45907.5338020486</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1485,7 +1494,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4166613426</x:v>
+        <x:v>45906.6652097222</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1517,7 +1526,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4152836806</x:v>
+        <x:v>45907.4166613426</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1549,7 +1558,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6679646991</x:v>
+        <x:v>45907.4152836806</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1581,7 +1590,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.66740625</x:v>
+        <x:v>45906.6679646991</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1613,7 +1622,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4151855671</x:v>
+        <x:v>45906.66740625</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1645,7 +1654,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4147188657</x:v>
+        <x:v>45907.4151855671</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1677,7 +1686,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4658447917</x:v>
+        <x:v>45907.4147188657</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1709,7 +1718,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4156379282</x:v>
+        <x:v>45907.4658447917</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1741,7 +1750,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4151101852</x:v>
+        <x:v>45907.4156379282</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1773,7 +1782,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45918.5846238426</x:v>
+        <x:v>45907.4151101852</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1805,7 +1814,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4171508912</x:v>
+        <x:v>45918.5846238426</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1837,7 +1846,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4172290162</x:v>
+        <x:v>45907.4171508912</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1869,7 +1878,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45912.7621351852</x:v>
+        <x:v>45907.4172290162</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1901,7 +1910,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6646741551</x:v>
+        <x:v>45912.7621351852</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1933,7 +1942,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45912.7627262384</x:v>
+        <x:v>45906.6646741551</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1965,7 +1974,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4151167824</x:v>
+        <x:v>45912.7627262384</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1997,7 +2006,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4146657407</x:v>
+        <x:v>45907.4151167824</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2029,7 +2038,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6649337616</x:v>
+        <x:v>45907.4146657407</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2061,7 +2070,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4188804745</x:v>
+        <x:v>45906.6649337616</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2089,9 +2098,11 @@
       <x:c r="C39" s="2" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="D39" s="2" t="s"/>
+      <x:c r="D39" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.4227425116</x:v>
+        <x:v>45907.4188804745</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2114,14 +2125,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D40" s="2" t="s"/>
       <x:c r="E40" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45906.4227425116</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2144,16 +2155,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="D41" s="2" t="s">
         <x:v>122</x:v>
       </x:c>
+      <x:c r="D41" s="2" t="s"/>
       <x:c r="E41" s="3">
-        <x:v>45907.4719599884</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2185,7 +2194,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.6647042824</x:v>
+        <x:v>45907.4719599884</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2217,7 +2226,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6649261921</x:v>
+        <x:v>45906.6647042824</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2234,6 +2243,38 @@
       <x:c r="R43" s="2" t="s"/>
       <x:c r="S43" s="2" t="s"/>
       <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45906.6649261921</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES307_Tutorial-35466.xlsx
+++ b/downloaded_files/EPES307_Tutorial-35466.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,51 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>1230146</x:t>
-  </x:si>
-  <x:si>
-    <x:t>أندرو أمجد أيليا قسطنجي موسى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Andrew Amgad Elia Qostangy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد السيد ابوالمجد احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Elsayed Aboelmaged</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200091</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد عاطف محمد لطفى على مغربى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Aef Mohamed Lotfy Aly Maghraby</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220215</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد عمرو محمود كامل رشاد توكل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Amr Mahmoud Tawakol</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220221</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد حسين الكومى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ahmed mohamed hussein</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220032</x:t>
   </x:si>
   <x:si>
@@ -105,24 +60,6 @@
     <x:t>Ahmed Mohamed Nabil</x:t>
   </x:si>
   <x:si>
-    <x:t>1230164</x:t>
-  </x:si>
-  <x:si>
-    <x:t>اندرو ايهاب جورج شاكر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Andrew Ehab George Shaker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4220114</x:t>
-  </x:si>
-  <x:si>
-    <x:t>بلال عبدالله فوزى حموده</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bellal Abdel Allah Fawzy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220005</x:t>
   </x:si>
   <x:si>
@@ -159,15 +96,6 @@
     <x:t>Hamza Ahmed Mohamed Mounir ElGohary</x:t>
   </x:si>
   <x:si>
-    <x:t>1220049</x:t>
-  </x:si>
-  <x:si>
-    <x:t>روان خالد عبدالله السيد حسونه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rawan Khaled Abdullah elsayed Hassouna</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220239</x:t>
   </x:si>
   <x:si>
@@ -186,15 +114,6 @@
     <x:t>Ziad Ehab Abdelmoneim Ali Abdel Wahab</x:t>
   </x:si>
   <x:si>
-    <x:t>1220240</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد معتز محمد محمد فؤاد إسماعيل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ziyad Moataz Mohamed Mohamed Fouad Ismail</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210138</x:t>
   </x:si>
   <x:si>
@@ -204,15 +123,6 @@
     <x:t>zaina sharrawy Attia Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1220051</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سابين حاتم محمد المهدى الحبشى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sabine Hatem Mohamed Elmahdy Elhabashy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220095</x:t>
   </x:si>
   <x:si>
@@ -240,15 +150,6 @@
     <x:t>sama elhussieny gamal eldin elhussieny</x:t>
   </x:si>
   <x:si>
-    <x:t>1220058</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سيف الدين ايمن عبدالمؤمن علي محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Seif eldin ayman abdelmomen ali mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220061</x:t>
   </x:si>
   <x:si>
@@ -258,24 +159,6 @@
     <x:t>Shady Ashraf Mohamed Samy</x:t>
   </x:si>
   <x:si>
-    <x:t>1210147</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عاصم محمد ابراهيم ابو رحاب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Asem Mohamed Ibrahim Aborehab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الله ناصر فاضل محمود محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdalluh Nasser fadel</x:t>
-  </x:si>
-  <x:si>
     <x:t>4230153</x:t>
   </x:si>
   <x:si>
@@ -285,42 +168,6 @@
     <x:t>Abdullah Amr Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1220259</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على أحمد صادق خاطر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali ahmed Sadek khater</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230068</x:t>
-  </x:si>
-  <x:si>
-    <x:t>علي تامر علي عبدالفتاح</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Tamer Ali Abdel Fattah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230208</x:t>
-  </x:si>
-  <x:si>
-    <x:t>علي محمد علي محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Mohamed Aly Mahmoud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230071</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمار وليد محمد سيد حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ammar Waleed Mohamed Sayed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220075</x:t>
   </x:si>
   <x:si>
@@ -330,15 +177,6 @@
     <x:t>Mohamed ahmed abd elaziz</x:t>
   </x:si>
   <x:si>
-    <x:t>1220273</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد احمد فهيم عبدالفتاح</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mohamed ahmed faheem</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220193</x:t>
   </x:si>
   <x:si>
@@ -366,34 +204,10 @@
     <x:t>Mahmoud mostafa mohamed aly</x:t>
   </x:si>
   <x:si>
-    <x:t>1230115</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم شريف على حسب الله</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mariam Sherif Aly Hassaballa</x:t>
-  </x:si>
-  <x:si>
     <x:t>4220143</x:t>
   </x:si>
   <x:si>
     <x:t>مريم ياسر عزت ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230309</x:t>
-  </x:si>
-  <x:si>
-    <x:t>هبه الله محمد شعيب السيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230286</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يحيى طارق ابراهيم أحمد نصرالدين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yehia Tarek ibrahim ahmed nasreldin</x:t>
   </x:si>
   <x:si>
     <x:t>1220091</x:t>
@@ -527,7 +341,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -827,7 +641,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -836,8 +650,8 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.400625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="43.050625000000004" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="41.510625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -918,7 +732,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.4168418634</x:v>
+        <x:v>45906.6671597569</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -950,7 +764,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4176098727</x:v>
+        <x:v>45906.6646690972</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -982,7 +796,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4155262732</x:v>
+        <x:v>45907.4150907755</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1014,7 +828,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4189025463</x:v>
+        <x:v>45907.4147799769</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1046,7 +860,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4342207176</x:v>
+        <x:v>45907.4151439005</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1078,7 +892,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6671597569</x:v>
+        <x:v>45907.4148217593</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1110,7 +924,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6646690972</x:v>
+        <x:v>45907.414821956</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1142,7 +956,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4150907755</x:v>
+        <x:v>45906.6647248495</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1174,7 +988,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45919.6726004977</x:v>
+        <x:v>45907.4145679398</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1206,7 +1020,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4226414352</x:v>
+        <x:v>45906.6652097222</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1238,7 +1052,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4147799769</x:v>
+        <x:v>45907.4152836806</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1270,7 +1084,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4151439005</x:v>
+        <x:v>45906.6679646991</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1302,7 +1116,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4148217593</x:v>
+        <x:v>45906.66740625</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1334,7 +1148,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.414821956</x:v>
+        <x:v>45907.4147188657</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1366,7 +1180,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4173934028</x:v>
+        <x:v>45907.4151101852</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1398,7 +1212,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6647248495</x:v>
+        <x:v>45906.6646741551</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1430,7 +1244,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4145679398</x:v>
+        <x:v>45907.4151167824</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1462,7 +1276,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.5338020486</x:v>
+        <x:v>45907.4146657407</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1494,7 +1308,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6652097222</x:v>
+        <x:v>45906.6649337616</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1522,11 +1336,9 @@
       <x:c r="C21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
+      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45907.4166613426</x:v>
+        <x:v>45906.4227425116</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1549,16 +1361,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4152836806</x:v>
+        <x:v>45906.6647042824</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1581,16 +1393,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="D23" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6679646991</x:v>
+        <x:v>45906.6649261921</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1608,674 +1420,6 @@
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
     </x:row>
-    <x:row r="24" spans="1:20">
-      <x:c r="A24" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E24" s="3">
-        <x:v>45906.66740625</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s"/>
-      <x:c r="G24" s="2" t="s"/>
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
-      <x:c r="J24" s="2" t="s"/>
-      <x:c r="K24" s="2" t="s"/>
-      <x:c r="L24" s="2" t="s"/>
-      <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="2" t="s"/>
-      <x:c r="Q24" s="2" t="s"/>
-      <x:c r="R24" s="2" t="s"/>
-      <x:c r="S24" s="2" t="s"/>
-      <x:c r="T24" s="2" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20">
-      <x:c r="A25" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E25" s="3">
-        <x:v>45907.4151855671</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s"/>
-      <x:c r="G25" s="2" t="s"/>
-      <x:c r="H25" s="2" t="s"/>
-      <x:c r="I25" s="2" t="s"/>
-      <x:c r="J25" s="2" t="s"/>
-      <x:c r="K25" s="2" t="s"/>
-      <x:c r="L25" s="2" t="s"/>
-      <x:c r="M25" s="2" t="s"/>
-      <x:c r="N25" s="2" t="s"/>
-      <x:c r="O25" s="2" t="s"/>
-      <x:c r="P25" s="2" t="s"/>
-      <x:c r="Q25" s="2" t="s"/>
-      <x:c r="R25" s="2" t="s"/>
-      <x:c r="S25" s="2" t="s"/>
-      <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E26" s="3">
-        <x:v>45907.4147188657</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45907.4658447917</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45907.4156379282</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45907.4151101852</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45918.5846238426</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45907.4171508912</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45907.4172290162</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:20">
-      <x:c r="A33" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="E33" s="3">
-        <x:v>45912.7621351852</x:v>
-      </x:c>
-      <x:c r="F33" s="2" t="s"/>
-      <x:c r="G33" s="2" t="s"/>
-      <x:c r="H33" s="2" t="s"/>
-      <x:c r="I33" s="2" t="s"/>
-      <x:c r="J33" s="2" t="s"/>
-      <x:c r="K33" s="2" t="s"/>
-      <x:c r="L33" s="2" t="s"/>
-      <x:c r="M33" s="2" t="s"/>
-      <x:c r="N33" s="2" t="s"/>
-      <x:c r="O33" s="2" t="s"/>
-      <x:c r="P33" s="2" t="s"/>
-      <x:c r="Q33" s="2" t="s"/>
-      <x:c r="R33" s="2" t="s"/>
-      <x:c r="S33" s="2" t="s"/>
-      <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45906.6646741551</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45912.7627262384</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45907.4151167824</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45907.4146657407</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45906.6649337616</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:20">
-      <x:c r="A39" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B39" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C39" s="2" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E39" s="3">
-        <x:v>45907.4188804745</x:v>
-      </x:c>
-      <x:c r="F39" s="2" t="s"/>
-      <x:c r="G39" s="2" t="s"/>
-      <x:c r="H39" s="2" t="s"/>
-      <x:c r="I39" s="2" t="s"/>
-      <x:c r="J39" s="2" t="s"/>
-      <x:c r="K39" s="2" t="s"/>
-      <x:c r="L39" s="2" t="s"/>
-      <x:c r="M39" s="2" t="s"/>
-      <x:c r="N39" s="2" t="s"/>
-      <x:c r="O39" s="2" t="s"/>
-      <x:c r="P39" s="2" t="s"/>
-      <x:c r="Q39" s="2" t="s"/>
-      <x:c r="R39" s="2" t="s"/>
-      <x:c r="S39" s="2" t="s"/>
-      <x:c r="T39" s="2" t="s"/>
-    </x:row>
-    <x:row r="40" spans="1:20">
-      <x:c r="A40" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B40" s="2" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="C40" s="2" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="D40" s="2" t="s"/>
-      <x:c r="E40" s="3">
-        <x:v>45906.4227425116</x:v>
-      </x:c>
-      <x:c r="F40" s="2" t="s"/>
-      <x:c r="G40" s="2" t="s"/>
-      <x:c r="H40" s="2" t="s"/>
-      <x:c r="I40" s="2" t="s"/>
-      <x:c r="J40" s="2" t="s"/>
-      <x:c r="K40" s="2" t="s"/>
-      <x:c r="L40" s="2" t="s"/>
-      <x:c r="M40" s="2" t="s"/>
-      <x:c r="N40" s="2" t="s"/>
-      <x:c r="O40" s="2" t="s"/>
-      <x:c r="P40" s="2" t="s"/>
-      <x:c r="Q40" s="2" t="s"/>
-      <x:c r="R40" s="2" t="s"/>
-      <x:c r="S40" s="2" t="s"/>
-      <x:c r="T40" s="2" t="s"/>
-    </x:row>
-    <x:row r="41" spans="1:20">
-      <x:c r="A41" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B41" s="2" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="C41" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="D41" s="2" t="s"/>
-      <x:c r="E41" s="3">
-        <x:v>45907.4155481482</x:v>
-      </x:c>
-      <x:c r="F41" s="2" t="s"/>
-      <x:c r="G41" s="2" t="s"/>
-      <x:c r="H41" s="2" t="s"/>
-      <x:c r="I41" s="2" t="s"/>
-      <x:c r="J41" s="2" t="s"/>
-      <x:c r="K41" s="2" t="s"/>
-      <x:c r="L41" s="2" t="s"/>
-      <x:c r="M41" s="2" t="s"/>
-      <x:c r="N41" s="2" t="s"/>
-      <x:c r="O41" s="2" t="s"/>
-      <x:c r="P41" s="2" t="s"/>
-      <x:c r="Q41" s="2" t="s"/>
-      <x:c r="R41" s="2" t="s"/>
-      <x:c r="S41" s="2" t="s"/>
-      <x:c r="T41" s="2" t="s"/>
-    </x:row>
-    <x:row r="42" spans="1:20">
-      <x:c r="A42" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B42" s="2" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="C42" s="2" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="E42" s="3">
-        <x:v>45907.4719599884</x:v>
-      </x:c>
-      <x:c r="F42" s="2" t="s"/>
-      <x:c r="G42" s="2" t="s"/>
-      <x:c r="H42" s="2" t="s"/>
-      <x:c r="I42" s="2" t="s"/>
-      <x:c r="J42" s="2" t="s"/>
-      <x:c r="K42" s="2" t="s"/>
-      <x:c r="L42" s="2" t="s"/>
-      <x:c r="M42" s="2" t="s"/>
-      <x:c r="N42" s="2" t="s"/>
-      <x:c r="O42" s="2" t="s"/>
-      <x:c r="P42" s="2" t="s"/>
-      <x:c r="Q42" s="2" t="s"/>
-      <x:c r="R42" s="2" t="s"/>
-      <x:c r="S42" s="2" t="s"/>
-      <x:c r="T42" s="2" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:20">
-      <x:c r="A43" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B43" s="2" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="C43" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="D43" s="2" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="E43" s="3">
-        <x:v>45906.6647042824</x:v>
-      </x:c>
-      <x:c r="F43" s="2" t="s"/>
-      <x:c r="G43" s="2" t="s"/>
-      <x:c r="H43" s="2" t="s"/>
-      <x:c r="I43" s="2" t="s"/>
-      <x:c r="J43" s="2" t="s"/>
-      <x:c r="K43" s="2" t="s"/>
-      <x:c r="L43" s="2" t="s"/>
-      <x:c r="M43" s="2" t="s"/>
-      <x:c r="N43" s="2" t="s"/>
-      <x:c r="O43" s="2" t="s"/>
-      <x:c r="P43" s="2" t="s"/>
-      <x:c r="Q43" s="2" t="s"/>
-      <x:c r="R43" s="2" t="s"/>
-      <x:c r="S43" s="2" t="s"/>
-      <x:c r="T43" s="2" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:20">
-      <x:c r="A44" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B44" s="2" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="C44" s="2" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="E44" s="3">
-        <x:v>45906.6649261921</x:v>
-      </x:c>
-      <x:c r="F44" s="2" t="s"/>
-      <x:c r="G44" s="2" t="s"/>
-      <x:c r="H44" s="2" t="s"/>
-      <x:c r="I44" s="2" t="s"/>
-      <x:c r="J44" s="2" t="s"/>
-      <x:c r="K44" s="2" t="s"/>
-      <x:c r="L44" s="2" t="s"/>
-      <x:c r="M44" s="2" t="s"/>
-      <x:c r="N44" s="2" t="s"/>
-      <x:c r="O44" s="2" t="s"/>
-      <x:c r="P44" s="2" t="s"/>
-      <x:c r="Q44" s="2" t="s"/>
-      <x:c r="R44" s="2" t="s"/>
-      <x:c r="S44" s="2" t="s"/>
-      <x:c r="T44" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -2288,9 +1432,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Electrical Measurements (EPES307) Location : [18203]18203-30-الجيزة الرئيسي Time : Wednesday(13:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/EPES307_Tutorial-35466.xlsx
+++ b/downloaded_files/EPES307_Tutorial-35466.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,15 +31,6 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220032</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد شوقى التهامى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mohamed Shawkey Eltohamyy</x:t>
   </x:si>
   <x:si>
     <x:t>1220161</x:t>
@@ -341,7 +332,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -641,7 +632,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -732,7 +723,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.6671597569</x:v>
+        <x:v>45906.6646690972</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -764,7 +755,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.6646690972</x:v>
+        <x:v>45907.4150907755</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -796,7 +787,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4150907755</x:v>
+        <x:v>45907.4147799769</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -828,7 +819,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4147799769</x:v>
+        <x:v>45907.4151439005</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -860,7 +851,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4151439005</x:v>
+        <x:v>45907.4148217593</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -892,7 +883,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4148217593</x:v>
+        <x:v>45907.414821956</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -924,7 +915,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.414821956</x:v>
+        <x:v>45906.6647248495</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -956,7 +947,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6647248495</x:v>
+        <x:v>45907.4145679398</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -988,7 +979,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4145679398</x:v>
+        <x:v>45906.6652097222</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1020,7 +1011,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6652097222</x:v>
+        <x:v>45907.4152836806</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1052,7 +1043,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4152836806</x:v>
+        <x:v>45906.6679646991</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1084,7 +1075,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6679646991</x:v>
+        <x:v>45906.66740625</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1116,7 +1107,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.66740625</x:v>
+        <x:v>45907.4147188657</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1148,7 +1139,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4147188657</x:v>
+        <x:v>45907.4151101852</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1180,7 +1171,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4151101852</x:v>
+        <x:v>45906.6646741551</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1212,7 +1203,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6646741551</x:v>
+        <x:v>45907.4151167824</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1244,7 +1235,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4151167824</x:v>
+        <x:v>45907.4146657407</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1276,7 +1267,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4146657407</x:v>
+        <x:v>45906.6649337616</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1304,11 +1295,9 @@
       <x:c r="C20" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
+      <x:c r="D20" s="2" t="s"/>
       <x:c r="E20" s="3">
-        <x:v>45906.6649337616</x:v>
+        <x:v>45906.4227425116</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1331,14 +1320,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45906.4227425116</x:v>
+        <x:v>45906.6647042824</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1370,7 +1361,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6647042824</x:v>
+        <x:v>45906.6649261921</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1387,38 +1378,6 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:20">
-      <x:c r="A23" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="E23" s="3">
-        <x:v>45906.6649261921</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s"/>
-      <x:c r="G23" s="2" t="s"/>
-      <x:c r="H23" s="2" t="s"/>
-      <x:c r="I23" s="2" t="s"/>
-      <x:c r="J23" s="2" t="s"/>
-      <x:c r="K23" s="2" t="s"/>
-      <x:c r="L23" s="2" t="s"/>
-      <x:c r="M23" s="2" t="s"/>
-      <x:c r="N23" s="2" t="s"/>
-      <x:c r="O23" s="2" t="s"/>
-      <x:c r="P23" s="2" t="s"/>
-      <x:c r="Q23" s="2" t="s"/>
-      <x:c r="R23" s="2" t="s"/>
-      <x:c r="S23" s="2" t="s"/>
-      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES307_Tutorial-35466.xlsx
+++ b/downloaded_files/EPES307_Tutorial-35466.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -112,6 +112,15 @@
   </x:si>
   <x:si>
     <x:t>zaina sharrawy Attia Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220051</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سابين حاتم محمد المهدى الحبشى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sabine Hatem Mohamed Elmahdy Elhabashy</x:t>
   </x:si>
   <x:si>
     <x:t>1220095</x:t>
@@ -332,7 +341,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -632,7 +641,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -642,7 +651,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.400625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="41.510625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1011,7 +1020,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4152836806</x:v>
+        <x:v>45927.9352061343</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1043,7 +1052,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6679646991</x:v>
+        <x:v>45907.4152836806</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1075,7 +1084,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.66740625</x:v>
+        <x:v>45906.6679646991</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1107,7 +1116,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4147188657</x:v>
+        <x:v>45906.66740625</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1139,7 +1148,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4151101852</x:v>
+        <x:v>45907.4147188657</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1171,7 +1180,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6646741551</x:v>
+        <x:v>45907.4151101852</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1203,7 +1212,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4151167824</x:v>
+        <x:v>45906.6646741551</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1235,7 +1244,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4146657407</x:v>
+        <x:v>45907.4151167824</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1267,7 +1276,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6649337616</x:v>
+        <x:v>45907.4146657407</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1295,9 +1304,11 @@
       <x:c r="C20" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s"/>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4227425116</x:v>
+        <x:v>45906.6649337616</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1320,16 +1331,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
+      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45906.6647042824</x:v>
+        <x:v>45906.4227425116</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1361,7 +1370,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6649261921</x:v>
+        <x:v>45906.6647042824</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1378,6 +1387,38 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45906.6649261921</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES307_Tutorial-35466.xlsx
+++ b/downloaded_files/EPES307_Tutorial-35466.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,6 +85,15 @@
   </x:si>
   <x:si>
     <x:t>Hamza Ahmed Mohamed Mounir ElGohary</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220049</x:t>
+  </x:si>
+  <x:si>
+    <x:t>روان خالد عبدالله السيد حسونه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rawan Khaled Abdullah elsayed Hassouna</x:t>
   </x:si>
   <x:si>
     <x:t>1220239</x:t>
@@ -341,7 +350,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -641,7 +650,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -924,7 +933,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6647248495</x:v>
+        <x:v>45928.3735321759</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -956,7 +965,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4145679398</x:v>
+        <x:v>45906.6647248495</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -988,7 +997,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6652097222</x:v>
+        <x:v>45907.4145679398</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1020,7 +1029,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.9352061343</x:v>
+        <x:v>45906.6652097222</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1052,7 +1061,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4152836806</x:v>
+        <x:v>45927.9352061343</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1084,7 +1093,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6679646991</x:v>
+        <x:v>45907.4152836806</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1116,7 +1125,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.66740625</x:v>
+        <x:v>45906.6679646991</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1148,7 +1157,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4147188657</x:v>
+        <x:v>45906.66740625</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1180,7 +1189,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4151101852</x:v>
+        <x:v>45907.4147188657</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1212,7 +1221,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6646741551</x:v>
+        <x:v>45907.4151101852</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1244,7 +1253,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4151167824</x:v>
+        <x:v>45906.6646741551</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1276,7 +1285,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4146657407</x:v>
+        <x:v>45907.4151167824</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1308,7 +1317,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6649337616</x:v>
+        <x:v>45907.4146657407</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1336,9 +1345,11 @@
       <x:c r="C21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s"/>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4227425116</x:v>
+        <x:v>45906.6649337616</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1361,16 +1372,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
+      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45906.6647042824</x:v>
+        <x:v>45906.4227425116</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1402,7 +1411,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6649261921</x:v>
+        <x:v>45906.6647042824</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1419,6 +1428,38 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45906.6649261921</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES307_Tutorial-35466.xlsx
+++ b/downloaded_files/EPES307_Tutorial-35466.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,15 +40,6 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Mohamed Assem Taher</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4230140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد نبيل احمد سيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mohamed Nabil</x:t>
   </x:si>
   <x:si>
     <x:t>1220005</x:t>
@@ -350,7 +341,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -650,7 +641,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -773,7 +764,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4150907755</x:v>
+        <x:v>45907.4147799769</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -805,7 +796,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4147799769</x:v>
+        <x:v>45907.4151439005</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -837,7 +828,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4151439005</x:v>
+        <x:v>45907.4148217593</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -869,7 +860,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4148217593</x:v>
+        <x:v>45907.414821956</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -901,7 +892,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.414821956</x:v>
+        <x:v>45928.3735321759</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -933,7 +924,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45928.3735321759</x:v>
+        <x:v>45906.6647248495</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -965,7 +956,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6647248495</x:v>
+        <x:v>45907.4145679398</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -997,7 +988,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4145679398</x:v>
+        <x:v>45906.6652097222</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1029,7 +1020,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6652097222</x:v>
+        <x:v>45927.9352061343</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1061,7 +1052,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.9352061343</x:v>
+        <x:v>45907.4152836806</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1093,7 +1084,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4152836806</x:v>
+        <x:v>45906.6679646991</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1125,7 +1116,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6679646991</x:v>
+        <x:v>45906.66740625</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1157,7 +1148,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.66740625</x:v>
+        <x:v>45907.4147188657</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1189,7 +1180,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4147188657</x:v>
+        <x:v>45907.4151101852</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1221,7 +1212,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4151101852</x:v>
+        <x:v>45906.6646741551</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1253,7 +1244,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6646741551</x:v>
+        <x:v>45907.4151167824</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1285,7 +1276,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4151167824</x:v>
+        <x:v>45907.4146657407</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1317,7 +1308,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4146657407</x:v>
+        <x:v>45906.6649337616</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1345,11 +1336,9 @@
       <x:c r="C21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
+      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45906.6649337616</x:v>
+        <x:v>45906.4227425116</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1372,14 +1361,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45906.4227425116</x:v>
+        <x:v>45906.6647042824</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1411,7 +1402,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6647042824</x:v>
+        <x:v>45906.6649261921</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1428,38 +1419,6 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:20">
-      <x:c r="A24" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="E24" s="3">
-        <x:v>45906.6649261921</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s"/>
-      <x:c r="G24" s="2" t="s"/>
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
-      <x:c r="J24" s="2" t="s"/>
-      <x:c r="K24" s="2" t="s"/>
-      <x:c r="L24" s="2" t="s"/>
-      <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="2" t="s"/>
-      <x:c r="Q24" s="2" t="s"/>
-      <x:c r="R24" s="2" t="s"/>
-      <x:c r="S24" s="2" t="s"/>
-      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES307_Tutorial-35466.xlsx
+++ b/downloaded_files/EPES307_Tutorial-35466.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,6 +76,15 @@
   </x:si>
   <x:si>
     <x:t>Hamza Ahmed Mohamed Mounir ElGohary</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220046</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حنين الظافر مصطفى أحمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Haneen ElZafer Mostafa</x:t>
   </x:si>
   <x:si>
     <x:t>1220049</x:t>
@@ -341,7 +350,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -641,7 +650,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -892,7 +901,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45928.3735321759</x:v>
+        <x:v>45929.6012089468</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -924,7 +933,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6647248495</x:v>
+        <x:v>45928.3735321759</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -956,7 +965,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4145679398</x:v>
+        <x:v>45906.6647248495</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -988,7 +997,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6652097222</x:v>
+        <x:v>45907.4145679398</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1020,7 +1029,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.9352061343</x:v>
+        <x:v>45906.6652097222</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1052,7 +1061,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4152836806</x:v>
+        <x:v>45927.9352061343</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1084,7 +1093,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6679646991</x:v>
+        <x:v>45907.4152836806</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1116,7 +1125,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.66740625</x:v>
+        <x:v>45906.6679646991</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1148,7 +1157,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4147188657</x:v>
+        <x:v>45906.66740625</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1180,7 +1189,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4151101852</x:v>
+        <x:v>45907.4147188657</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1212,7 +1221,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6646741551</x:v>
+        <x:v>45907.4151101852</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1244,7 +1253,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4151167824</x:v>
+        <x:v>45906.6646741551</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1276,7 +1285,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4146657407</x:v>
+        <x:v>45907.4151167824</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1308,7 +1317,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6649337616</x:v>
+        <x:v>45907.4146657407</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1336,9 +1345,11 @@
       <x:c r="C21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s"/>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4227425116</x:v>
+        <x:v>45906.6649337616</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1361,16 +1372,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
+      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45906.6647042824</x:v>
+        <x:v>45906.4227425116</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1402,7 +1411,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6649261921</x:v>
+        <x:v>45906.6647042824</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1419,6 +1428,38 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45906.6649261921</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES307_Tutorial-35466.xlsx
+++ b/downloaded_files/EPES307_Tutorial-35466.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,15 +76,6 @@
   </x:si>
   <x:si>
     <x:t>Hamza Ahmed Mohamed Mounir ElGohary</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220046</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حنين الظافر مصطفى أحمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Haneen ElZafer Mostafa</x:t>
   </x:si>
   <x:si>
     <x:t>1220049</x:t>
@@ -350,7 +341,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -650,7 +641,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -901,7 +892,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45929.6012089468</x:v>
+        <x:v>45928.3735321759</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -933,7 +924,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45928.3735321759</x:v>
+        <x:v>45906.6647248495</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -965,7 +956,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6647248495</x:v>
+        <x:v>45907.4145679398</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -997,7 +988,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4145679398</x:v>
+        <x:v>45906.6652097222</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1029,7 +1020,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6652097222</x:v>
+        <x:v>45927.9352061343</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1061,7 +1052,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.9352061343</x:v>
+        <x:v>45907.4152836806</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1093,7 +1084,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4152836806</x:v>
+        <x:v>45906.6679646991</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1125,7 +1116,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6679646991</x:v>
+        <x:v>45906.66740625</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1157,7 +1148,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.66740625</x:v>
+        <x:v>45907.4147188657</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1189,7 +1180,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4147188657</x:v>
+        <x:v>45907.4151101852</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1221,7 +1212,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4151101852</x:v>
+        <x:v>45906.6646741551</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1253,7 +1244,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6646741551</x:v>
+        <x:v>45907.4151167824</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1285,7 +1276,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4151167824</x:v>
+        <x:v>45907.4146657407</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1317,7 +1308,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4146657407</x:v>
+        <x:v>45906.6649337616</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1345,11 +1336,9 @@
       <x:c r="C21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
+      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45906.6649337616</x:v>
+        <x:v>45906.4227425116</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1372,14 +1361,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45906.4227425116</x:v>
+        <x:v>45906.6647042824</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1411,7 +1402,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6647042824</x:v>
+        <x:v>45906.6649261921</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1428,38 +1419,6 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:20">
-      <x:c r="A24" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="E24" s="3">
-        <x:v>45906.6649261921</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s"/>
-      <x:c r="G24" s="2" t="s"/>
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
-      <x:c r="J24" s="2" t="s"/>
-      <x:c r="K24" s="2" t="s"/>
-      <x:c r="L24" s="2" t="s"/>
-      <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="2" t="s"/>
-      <x:c r="Q24" s="2" t="s"/>
-      <x:c r="R24" s="2" t="s"/>
-      <x:c r="S24" s="2" t="s"/>
-      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
